--- a/000 AGENCIA INFORMACION DI/Falta_Tag.xlsx
+++ b/000 AGENCIA INFORMACION DI/Falta_Tag.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6549E930-6241-4847-8DA5-9ECBF4F26305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7812"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,14 +96,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -132,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,58 +436,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -435,12 +501,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -448,12 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
